--- a/Base/Teams/Rams/Players Data w Henderson.xlsx
+++ b/Base/Teams/Rams/Players Data w Henderson.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
   <si>
     <t>Name</t>
   </si>
@@ -35,13 +35,22 @@
     <t>M.Stafford</t>
   </si>
   <si>
+    <t>J.Wolford</t>
+  </si>
+  <si>
     <t>D.Henderson</t>
   </si>
   <si>
     <t>S.Michel</t>
   </si>
   <si>
-    <t>R.Woods</t>
+    <t>J.Funk</t>
+  </si>
+  <si>
+    <t>M.Brown</t>
+  </si>
+  <si>
+    <t>M.Sargent</t>
   </si>
   <si>
     <t>C.Kupp</t>
@@ -68,10 +77,19 @@
     <t>V.Jefferson</t>
   </si>
   <si>
-    <t>D.Jackson</t>
+    <t>B.Skowronek</t>
+  </si>
+  <si>
+    <t>O.Beckham</t>
+  </si>
+  <si>
+    <t>K.Blanton</t>
   </si>
   <si>
     <t>T.Higbee</t>
+  </si>
+  <si>
+    <t>J.Mundt</t>
   </si>
 </sst>
 </file>
@@ -429,7 +447,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -460,16 +478,16 @@
         <v>5</v>
       </c>
       <c r="C2">
+        <v>4</v>
+      </c>
+      <c r="D2">
         <v>3</v>
       </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
       <c r="E2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -480,16 +498,16 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -500,16 +518,16 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>6</v>
+        <v>93</v>
       </c>
       <c r="D4">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -520,16 +538,16 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -543,12 +561,72 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
         <v>1</v>
       </c>
     </row>
@@ -559,7 +637,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -570,22 +648,22 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -593,25 +671,25 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="D2">
+        <v>25</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2">
+        <v>9</v>
+      </c>
+      <c r="H2">
         <v>3</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>2</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -622,19 +700,19 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D3">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
         <v>2</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>3</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -645,25 +723,25 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C4">
+        <v>103</v>
+      </c>
+      <c r="D4">
+        <v>81</v>
+      </c>
+      <c r="E4">
+        <v>36</v>
+      </c>
+      <c r="F4">
+        <v>19</v>
+      </c>
+      <c r="G4">
+        <v>25</v>
+      </c>
+      <c r="H4">
         <v>17</v>
-      </c>
-      <c r="D4">
-        <v>13</v>
-      </c>
-      <c r="E4">
-        <v>4</v>
-      </c>
-      <c r="F4">
-        <v>3</v>
-      </c>
-      <c r="G4">
-        <v>4</v>
-      </c>
-      <c r="H4">
-        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -671,25 +749,25 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -697,22 +775,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6">
         <v>17</v>
       </c>
-      <c r="C6">
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
         <v>2</v>
       </c>
-      <c r="D6">
-        <v>2</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
       <c r="G6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -723,24 +801,102 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C7">
+        <v>49</v>
+      </c>
+      <c r="D7">
+        <v>44</v>
+      </c>
+      <c r="E7">
+        <v>24</v>
+      </c>
+      <c r="F7">
+        <v>10</v>
+      </c>
+      <c r="G7">
+        <v>19</v>
+      </c>
+      <c r="H7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="D7">
-        <v>5</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7">
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9">
+        <v>54</v>
+      </c>
+      <c r="D9">
+        <v>41</v>
+      </c>
+      <c r="E9">
+        <v>8</v>
+      </c>
+      <c r="F9">
+        <v>3</v>
+      </c>
+      <c r="G9">
+        <v>16</v>
+      </c>
+      <c r="H9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
         <v>0</v>
       </c>
     </row>
